--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AREPD_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2241859657224307</v>
+        <v>-0.2781022865678179</v>
       </c>
       <c r="D2">
-        <v>0.8226216922935563</v>
+        <v>0.7826181163526409</v>
       </c>
       <c r="E2">
         <v>3.587937739237215</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4177647561191319</v>
+        <v>-0.7297671176796202</v>
       </c>
       <c r="D3">
-        <v>0.6761369213726853</v>
+        <v>0.4705308036228892</v>
       </c>
       <c r="E3">
         <v>3.587937739237215</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-2.427843496613758</v>
+        <v>-1.699897949074796</v>
       </c>
       <c r="D4">
-        <v>0.01522368749200065</v>
+        <v>0.09828244218043558</v>
       </c>
       <c r="E4">
         <v>3.587937739237215</v>
@@ -505,7 +505,7 @@
         <v>4.43658316169271</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-2.134000361490474</v>
+        <v>-2.099816983818729</v>
       </c>
       <c r="D5">
-        <v>0.03289089344148532</v>
+        <v>0.04324053305676823</v>
       </c>
       <c r="E5">
         <v>3.587937739237215</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2994277082899586</v>
+        <v>-0.2771445933377392</v>
       </c>
       <c r="D6">
-        <v>0.7646260723974476</v>
+        <v>0.7833471780010841</v>
       </c>
       <c r="E6">
         <v>3.664390439823169</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.747535877037659</v>
+        <v>-1.255393721793903</v>
       </c>
       <c r="D7">
-        <v>0.08060533778457613</v>
+        <v>0.2178956497620161</v>
       </c>
       <c r="E7">
         <v>3.664390439823169</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.095780872138868</v>
+        <v>-1.760255249330729</v>
       </c>
       <c r="D8">
-        <v>0.03615140107565185</v>
+        <v>0.08735908148987104</v>
       </c>
       <c r="E8">
         <v>3.664390439823169</v>
@@ -609,7 +609,7 @@
         <v>4.57224075478713</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>40</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.468637157610281</v>
+        <v>-1.518638694042757</v>
       </c>
       <c r="D9">
-        <v>0.141993651414567</v>
+        <v>0.1380984426700713</v>
       </c>
       <c r="E9">
         <v>3.761282646519322</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.12132191274986</v>
+        <v>-1.938158091634261</v>
       </c>
       <c r="D10">
-        <v>0.03394340830438125</v>
+        <v>0.06094376260187717</v>
       </c>
       <c r="E10">
         <v>3.761282646519322</v>
@@ -661,7 +661,7 @@
         <v>4.57224075478713</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>60</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.2422869064058693</v>
+        <v>-0.3568982988580892</v>
       </c>
       <c r="D11">
-        <v>0.8085677188511868</v>
+        <v>0.7233735659337914</v>
       </c>
       <c r="E11">
         <v>4.43658316169271</v>
